--- a/XFP Files/Documents/Device Types.xlsx
+++ b/XFP Files/Documents/Device Types.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie.Bartleet\Documents\Dev\XFP\XFP Files\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.bartleet\Documents\Dev\XFP\XFP Files\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28291555-854E-4066-A0BE-702EAF7D8B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D578D4FC-D19D-4EA0-926D-43269197CBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6A199B2-DA95-40E2-B97A-952433B8B03B}"/>
+    <workbookView xWindow="25974" yWindow="-3342" windowWidth="26301" windowHeight="14889" activeTab="1" xr2:uid="{B6A199B2-DA95-40E2-B97A-952433B8B03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="189">
   <si>
     <t>Disc Ion</t>
   </si>
@@ -540,6 +541,69 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>XP95_S90_OpticalDetector = 20</t>
+  </si>
+  <si>
+    <t>XP95_S90_IonisationDetector = 12</t>
+  </si>
+  <si>
+    <t>XP95_S90_HeatDetector = 24</t>
+  </si>
+  <si>
+    <t>XP95_S90_HighTempDetector = 25</t>
+  </si>
+  <si>
+    <t>Discovery_COHeatDetector = 112</t>
+  </si>
+  <si>
+    <t>XP95_MultiDetector = 23</t>
+  </si>
+  <si>
+    <t>Discovery_MCP = 248</t>
+  </si>
+  <si>
+    <t>XP95_MCP = 31</t>
+  </si>
+  <si>
+    <t>S90_MCP = 28</t>
+  </si>
+  <si>
+    <t>SounderController = 4</t>
+  </si>
+  <si>
+    <t>SounderBeaconBase = 48</t>
+  </si>
+  <si>
+    <t>SounderBase = 49</t>
+  </si>
+  <si>
+    <t>SounderIOUnit = 63</t>
+  </si>
+  <si>
+    <t>XP95_S90_IOUnit = 8</t>
+  </si>
+  <si>
+    <t>Mini Switch Monitor Switch Monitor Unit &amp; Switch Monitor Plus</t>
+  </si>
+  <si>
+    <t>XP95_SwitchMonitor = 17</t>
+  </si>
+  <si>
+    <t>IntelligentBeamDetector = 21</t>
+  </si>
+  <si>
+    <t>XP95_FlameDetector = 22</t>
+  </si>
+  <si>
+    <t>Zone Monitor Unit &amp; Control Unit Monitor Xpander Interface</t>
+  </si>
+  <si>
+    <t>XP95_S90_ZoneMonitorUnit = 16</t>
+  </si>
+  <si>
+    <t>NonLatchingIOUnit = 127</t>
   </si>
 </sst>
 </file>
@@ -662,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,22 +1127,22 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
-    <col min="6" max="8" width="3.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.375" customWidth="1"/>
+    <col min="6" max="8" width="3.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="3.125" customWidth="1"/>
+    <col min="12" max="12" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1110,7 +1177,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1276,7 +1343,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1407,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1473,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1539,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1715,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1745,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1966,4 +2033,923 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE0E7F-338B-49FA-B2B8-C3950B040422}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="3.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="36.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16">
+        <v>160</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="17">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>96</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="17">
+        <v>12</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>192</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="17">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17">
+        <v>25</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
+        <v>105</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17">
+        <v>112</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17">
+        <v>184</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="17">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>248</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="17">
+        <v>28</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="20">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="17">
+        <v>48</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="17">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="17">
+        <v>63</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="17">
+        <v>52</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="17">
+        <v>53</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="17">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="17">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="17">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="17">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="17">
+        <v>16</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="17">
+        <v>127</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>